--- a/biology/Botanique/Echinodium/Echinodium.xlsx
+++ b/biology/Botanique/Echinodium/Echinodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinodium est un genre de mousses appartenant à la famille des Echinodiaceae.
 </t>
@@ -511,25 +523,27 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 août 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 août 2018) :
 Echinodium hispidum (sv) Reichardt, 1870
 Echinodium prolixum Brotherus, 1909
 Echinodium renauldii Brotherus, 1909
 Echinodium setigerum Juratzka, 1866
 Echinodium spinosum Juratzka, 1866
 Echinodium umbrosum Jaeger, 1878
-Selon ITIS      (1 août 2018)[3] :
+Selon ITIS      (1 août 2018) :
 Echinodium hispidum (sv)
-Selon The Plant List            (1 août 2018)[4] :
+Selon The Plant List            (1 août 2018) :
 Echinodium hispidum (sv) (Hook. f. &amp; Wilson) Reichardt
 Echinodium prolixum (Mitt.) Broth.
 Echinodium renauldii (Cardot) Broth.
 Echinodium setigerum (Mitt.) Jur.
 Echinodium spinosum (Mitt.) Jur.
 Echinodium umbrosum (Mitt.) A. Jaeger
-Selon Tropicos                                           (1 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Echinodium arboreum Broth.
 Echinodium falcatulum Broth. &amp; Paris
 Echinodium glaucoviride (Mitt.) A. Jaeger
